--- a/cam5_validation.xlsx
+++ b/cam5_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9734C49E-B9FD-4A48-8644-E1971E598D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBC4D4E-327C-44B4-B1FE-6FB43D51D331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22363" yWindow="3917" windowWidth="16191" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12694" yWindow="2683" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>855.995</v>
+        <v>907.12300000000005</v>
       </c>
       <c r="B1" s="1">
-        <v>1023.345</v>
+        <v>1023.784</v>
       </c>
       <c r="C1" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,268 +372,268 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>875.53099999999995</v>
+        <v>924.67899999999997</v>
       </c>
       <c r="B2" s="1">
-        <v>1813.2750000000001</v>
+        <v>1780.1130000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.93</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>871.39099999999996</v>
+        <v>920.17200000000003</v>
       </c>
       <c r="B3" s="1">
-        <v>1717.3489999999999</v>
+        <v>1675.692</v>
       </c>
       <c r="C3" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.05</v>
+        <v>-13.98</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>867.46199999999999</v>
+        <v>916.51199999999994</v>
       </c>
       <c r="B4" s="1">
-        <v>1613.5350000000001</v>
+        <v>1577.635</v>
       </c>
       <c r="C4" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.02</v>
+        <v>-11.93</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>863.93499999999995</v>
+        <v>913.50199999999995</v>
       </c>
       <c r="B5" s="1">
-        <v>1513.3710000000001</v>
+        <v>1484.15</v>
       </c>
       <c r="C5" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D5" s="1">
-        <v>-10</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>861.37800000000004</v>
+        <v>911.20399999999995</v>
       </c>
       <c r="B6" s="1">
-        <v>1414.53</v>
+        <v>1389.0219999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D6" s="1">
-        <v>-8.02</v>
+        <v>-7.93</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>859.06600000000003</v>
+        <v>909.37099999999998</v>
       </c>
       <c r="B7" s="1">
-        <v>1316.6980000000001</v>
+        <v>1296.7</v>
       </c>
       <c r="C7" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D7" s="1">
-        <v>-6.02</v>
+        <v>-5.93</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>857.50800000000004</v>
+        <v>907.95</v>
       </c>
       <c r="B8" s="1">
-        <v>1219.261</v>
+        <v>1204.241</v>
       </c>
       <c r="C8" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D8" s="1">
-        <v>-4.0199999999999996</v>
+        <v>-3.93</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>856.54499999999996</v>
+        <v>907.39599999999996</v>
       </c>
       <c r="B9" s="1">
-        <v>1122.009</v>
+        <v>1112.2529999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D9" s="1">
-        <v>-2.02</v>
+        <v>-1.93</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>856.02599999999995</v>
+        <v>907.28700000000003</v>
       </c>
       <c r="B10" s="1">
-        <v>1025.028</v>
+        <v>1021</v>
       </c>
       <c r="C10" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>856.05600000000004</v>
+        <v>907.91600000000005</v>
       </c>
       <c r="B11" s="1">
-        <v>926.60799999999995</v>
+        <v>927.76300000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D11" s="1">
-        <v>1.98</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>856.87400000000002</v>
+        <v>908.88900000000001</v>
       </c>
       <c r="B12" s="1">
-        <v>829.80399999999997</v>
+        <v>836.91800000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D12" s="1">
-        <v>3.95</v>
+        <v>4.07</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>858.03700000000003</v>
+        <v>910.54899999999998</v>
       </c>
       <c r="B13" s="1">
-        <v>731.16200000000003</v>
+        <v>744.35699999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D13" s="1">
-        <v>5.95</v>
+        <v>6.07</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>860.1</v>
+        <v>913.02200000000005</v>
       </c>
       <c r="B14" s="1">
-        <v>631.68100000000004</v>
+        <v>651.70000000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D14" s="1">
-        <v>7.93</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>862.5</v>
+        <v>916.05200000000002</v>
       </c>
       <c r="B15" s="1">
-        <v>530.25099999999998</v>
+        <v>556.99400000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D15" s="1">
-        <v>9.93</v>
+        <v>10.07</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>865.5</v>
+        <v>919.68100000000004</v>
       </c>
       <c r="B16" s="1">
-        <v>427.34800000000001</v>
+        <v>462.517</v>
       </c>
       <c r="C16" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D16" s="1">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>869.41600000000005</v>
+        <v>923.74800000000005</v>
       </c>
       <c r="B17" s="1">
-        <v>322.98099999999999</v>
+        <v>368.96499999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D17" s="1">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>873.53599999999994</v>
+        <v>928.56399999999996</v>
       </c>
       <c r="B18" s="1">
-        <v>215.37799999999999</v>
+        <v>272.959</v>
       </c>
       <c r="C18" s="1">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="D18" s="1">
-        <v>15.93</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>837.83500000000004</v>
+        <v>889.02499999999998</v>
       </c>
       <c r="B19" s="1">
-        <v>1023.341</v>
+        <v>1023.694</v>
       </c>
       <c r="C19" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,268 +642,268 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>856.44600000000003</v>
+        <v>906.1</v>
       </c>
       <c r="B20" s="1">
-        <v>1812.0219999999999</v>
+        <v>1781.357</v>
       </c>
       <c r="C20" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.93</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>851.41800000000001</v>
+        <v>901.56200000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>1689.5550000000001</v>
+        <v>1675.71</v>
       </c>
       <c r="C21" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.05</v>
+        <v>-13.97</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>848.47699999999998</v>
+        <v>898.03099999999995</v>
       </c>
       <c r="B22" s="1">
-        <v>1611.674</v>
+        <v>1578.0540000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.02</v>
+        <v>-11.92</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>845.49</v>
+        <v>895.16</v>
       </c>
       <c r="B23" s="1">
-        <v>1512.3030000000001</v>
+        <v>1484.037</v>
       </c>
       <c r="C23" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D23" s="1">
-        <v>-10</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>842.76400000000001</v>
+        <v>892.59100000000001</v>
       </c>
       <c r="B24" s="1">
-        <v>1414.336</v>
+        <v>1389.979</v>
       </c>
       <c r="C24" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D24" s="1">
-        <v>-8.02</v>
+        <v>-7.92</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>840.61400000000003</v>
+        <v>891.01400000000001</v>
       </c>
       <c r="B25" s="1">
-        <v>1316.8820000000001</v>
+        <v>1297.8989999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D25" s="1">
-        <v>-6.02</v>
+        <v>-5.92</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>839.20799999999997</v>
+        <v>889.98</v>
       </c>
       <c r="B26" s="1">
-        <v>1219.1869999999999</v>
+        <v>1205.665</v>
       </c>
       <c r="C26" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D26" s="1">
-        <v>-4.0199999999999996</v>
+        <v>-3.95</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>838.16399999999999</v>
+        <v>889.04499999999996</v>
       </c>
       <c r="B27" s="1">
-        <v>1122.7449999999999</v>
+        <v>1112.7249999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.0499999999999998</v>
+        <v>-1.92</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>837.78099999999995</v>
+        <v>889.02300000000002</v>
       </c>
       <c r="B28" s="1">
-        <v>1024.1279999999999</v>
+        <v>1021.514</v>
       </c>
       <c r="C28" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>837.91899999999998</v>
+        <v>889.76099999999997</v>
       </c>
       <c r="B29" s="1">
-        <v>926.93399999999997</v>
+        <v>928.64200000000005</v>
       </c>
       <c r="C29" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D29" s="1">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>838.29</v>
+        <v>890.69600000000003</v>
       </c>
       <c r="B30" s="1">
-        <v>830.19899999999996</v>
+        <v>837.55700000000002</v>
       </c>
       <c r="C30" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D30" s="1">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>839.60699999999997</v>
+        <v>892.5</v>
       </c>
       <c r="B31" s="1">
-        <v>732.07</v>
+        <v>745.96600000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D31" s="1">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>841.471</v>
+        <v>894.63499999999999</v>
       </c>
       <c r="B32" s="1">
-        <v>632.14499999999998</v>
+        <v>653.99199999999996</v>
       </c>
       <c r="C32" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D32" s="1">
-        <v>7.93</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>843.77300000000002</v>
+        <v>897.54100000000005</v>
       </c>
       <c r="B33" s="1">
-        <v>530.96</v>
+        <v>558.68399999999997</v>
       </c>
       <c r="C33" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D33" s="1">
-        <v>9.93</v>
+        <v>10.08</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>846.71799999999996</v>
+        <v>901.11699999999996</v>
       </c>
       <c r="B34" s="1">
-        <v>429.041</v>
+        <v>464.471</v>
       </c>
       <c r="C34" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D34" s="1">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>850.29600000000005</v>
+        <v>905.26800000000003</v>
       </c>
       <c r="B35" s="1">
-        <v>324.27</v>
+        <v>370.28800000000001</v>
       </c>
       <c r="C35" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D35" s="1">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>854.471</v>
+        <v>909.577</v>
       </c>
       <c r="B36" s="1">
-        <v>216.93299999999999</v>
+        <v>274.20600000000002</v>
       </c>
       <c r="C36" s="1">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="D36" s="1">
-        <v>15.93</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>820.89700000000005</v>
+        <v>872.13699999999994</v>
       </c>
       <c r="B37" s="1">
-        <v>1023.306</v>
+        <v>1023.794</v>
       </c>
       <c r="C37" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,268 +912,268 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>838.46299999999997</v>
+        <v>888.52800000000002</v>
       </c>
       <c r="B38" s="1">
-        <v>1798.2660000000001</v>
+        <v>1780.6610000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>835.06899999999996</v>
+        <v>884.25400000000002</v>
       </c>
       <c r="B39" s="1">
-        <v>1716.758</v>
+        <v>1674.6610000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.05</v>
+        <v>-13.97</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>831.45100000000002</v>
+        <v>880.923</v>
       </c>
       <c r="B40" s="1">
-        <v>1618.0530000000001</v>
+        <v>1577.67</v>
       </c>
       <c r="C40" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D40" s="1">
-        <v>-12</v>
+        <v>-11.92</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>828.18899999999996</v>
+        <v>878.23400000000004</v>
       </c>
       <c r="B41" s="1">
-        <v>1510.777</v>
+        <v>1484.1849999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D41" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>825.76599999999996</v>
+        <v>875.61199999999997</v>
       </c>
       <c r="B42" s="1">
-        <v>1415.7739999999999</v>
+        <v>1389.0409999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D42" s="1">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>823.553</v>
+        <v>874.18200000000002</v>
       </c>
       <c r="B43" s="1">
-        <v>1314.5129999999999</v>
+        <v>1297.32</v>
       </c>
       <c r="C43" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D43" s="1">
-        <v>-6.05</v>
+        <v>-5.95</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>822.37300000000005</v>
+        <v>873</v>
       </c>
       <c r="B44" s="1">
-        <v>1217.3810000000001</v>
+        <v>1204.0119999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D44" s="1">
-        <v>-4.03</v>
+        <v>-3.92</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>821.28800000000001</v>
+        <v>872.303</v>
       </c>
       <c r="B45" s="1">
-        <v>1121.31</v>
+        <v>1113.1949999999999</v>
       </c>
       <c r="C45" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D45" s="1">
-        <v>-2.0299999999999998</v>
+        <v>-1.92</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>820.93499999999995</v>
+        <v>872.09100000000001</v>
       </c>
       <c r="B46" s="1">
-        <v>1023.468</v>
+        <v>1021.6950000000001</v>
       </c>
       <c r="C46" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>820.99699999999996</v>
+        <v>872.89599999999996</v>
       </c>
       <c r="B47" s="1">
-        <v>926.95899999999995</v>
+        <v>929.18200000000002</v>
       </c>
       <c r="C47" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D47" s="1">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>821.38400000000001</v>
+        <v>873.96</v>
       </c>
       <c r="B48" s="1">
-        <v>828.64</v>
+        <v>838.07799999999997</v>
       </c>
       <c r="C48" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D48" s="1">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>822.67499999999995</v>
+        <v>875.505</v>
       </c>
       <c r="B49" s="1">
-        <v>732.10299999999995</v>
+        <v>746.15899999999999</v>
       </c>
       <c r="C49" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D49" s="1">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>824.41</v>
+        <v>877.58799999999997</v>
       </c>
       <c r="B50" s="1">
-        <v>632.61500000000001</v>
+        <v>654.59400000000005</v>
       </c>
       <c r="C50" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D50" s="1">
-        <v>7.92</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>826.57100000000003</v>
+        <v>880.43200000000002</v>
       </c>
       <c r="B51" s="1">
-        <v>530.92899999999997</v>
+        <v>559.21699999999998</v>
       </c>
       <c r="C51" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D51" s="1">
-        <v>9.92</v>
+        <v>10.08</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>829.53399999999999</v>
+        <v>883.88900000000001</v>
       </c>
       <c r="B52" s="1">
-        <v>428.32499999999999</v>
+        <v>466.14600000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D52" s="1">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>832.899</v>
+        <v>887.745</v>
       </c>
       <c r="B53" s="1">
-        <v>324.12099999999998</v>
+        <v>371.27300000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D53" s="1">
-        <v>13.92</v>
+        <v>14.1</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>836.70600000000002</v>
+        <v>892.25199999999995</v>
       </c>
       <c r="B54" s="1">
-        <v>217.09200000000001</v>
+        <v>275.89299999999997</v>
       </c>
       <c r="C54" s="1">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="D54" s="1">
-        <v>15.92</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>805.29100000000005</v>
+        <v>856.93799999999999</v>
       </c>
       <c r="B55" s="1">
-        <v>1023.77</v>
+        <v>1023.539</v>
       </c>
       <c r="C55" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,256 +1182,256 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>822.39</v>
+        <v>872.495</v>
       </c>
       <c r="B56" s="1">
-        <v>1806.326</v>
+        <v>1780.2919999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>818.423</v>
+        <v>868.31700000000001</v>
       </c>
       <c r="B57" s="1">
-        <v>1703.0889999999999</v>
+        <v>1674.325</v>
       </c>
       <c r="C57" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.05</v>
+        <v>-13.97</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>815.09500000000003</v>
+        <v>864.97900000000004</v>
       </c>
       <c r="B58" s="1">
-        <v>1610.3879999999999</v>
+        <v>1577.489</v>
       </c>
       <c r="C58" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D58" s="1">
-        <v>-12</v>
+        <v>-11.92</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>812.23800000000006</v>
+        <v>862.48199999999997</v>
       </c>
       <c r="B59" s="1">
-        <v>1512.104</v>
+        <v>1483.366</v>
       </c>
       <c r="C59" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>809.70699999999999</v>
+        <v>860.13599999999997</v>
       </c>
       <c r="B60" s="1">
-        <v>1413.6110000000001</v>
+        <v>1389.413</v>
       </c>
       <c r="C60" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D60" s="1">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>807.87599999999998</v>
+        <v>858.49699999999996</v>
       </c>
       <c r="B61" s="1">
-        <v>1318.77</v>
+        <v>1296.6969999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D61" s="1">
-        <v>-6.03</v>
+        <v>-5.92</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>806.51300000000003</v>
+        <v>857.37400000000002</v>
       </c>
       <c r="B62" s="1">
-        <v>1217.9179999999999</v>
+        <v>1205.6310000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D62" s="1">
-        <v>-4.05</v>
+        <v>-3.95</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>805.49800000000005</v>
+        <v>856.96799999999996</v>
       </c>
       <c r="B63" s="1">
-        <v>1120.2239999999999</v>
+        <v>1112.9000000000001</v>
       </c>
       <c r="C63" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D63" s="1">
-        <v>-2.0299999999999998</v>
+        <v>-1.92</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>805.26099999999997</v>
+        <v>856.93799999999999</v>
       </c>
       <c r="B64" s="1">
-        <v>1023.6849999999999</v>
+        <v>1021.542</v>
       </c>
       <c r="C64" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>805.178</v>
+        <v>857.28099999999995</v>
       </c>
       <c r="B65" s="1">
-        <v>927.27200000000005</v>
+        <v>930.06</v>
       </c>
       <c r="C65" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D65" s="1">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>805.92600000000004</v>
+        <v>858.38800000000003</v>
       </c>
       <c r="B66" s="1">
-        <v>829.91099999999994</v>
+        <v>838.57</v>
       </c>
       <c r="C66" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D66" s="1">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>806.98800000000006</v>
+        <v>859.62900000000002</v>
       </c>
       <c r="B67" s="1">
-        <v>732.524</v>
+        <v>747.125</v>
       </c>
       <c r="C67" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D67" s="1">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>808.55399999999997</v>
+        <v>861.93100000000004</v>
       </c>
       <c r="B68" s="1">
-        <v>633.12599999999998</v>
+        <v>655.15099999999995</v>
       </c>
       <c r="C68" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D68" s="1">
-        <v>7.95</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>810.55600000000004</v>
+        <v>864.87300000000005</v>
       </c>
       <c r="B69" s="1">
-        <v>531.77499999999998</v>
+        <v>560.27300000000002</v>
       </c>
       <c r="C69" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D69" s="1">
-        <v>9.92</v>
+        <v>10.08</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>813.42600000000004</v>
+        <v>867.93399999999997</v>
       </c>
       <c r="B70" s="1">
-        <v>429.73899999999998</v>
+        <v>466.64600000000002</v>
       </c>
       <c r="C70" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D70" s="1">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>816.66099999999994</v>
+        <v>871.779</v>
       </c>
       <c r="B71" s="1">
-        <v>324.74799999999999</v>
+        <v>372.08800000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D71" s="1">
-        <v>13.92</v>
+        <v>14.1</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>820.37900000000002</v>
+        <v>876.19799999999998</v>
       </c>
       <c r="B72" s="1">
-        <v>218.64599999999999</v>
+        <v>276.90100000000001</v>
       </c>
       <c r="C72" s="1">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="D72" s="1">
-        <v>15.92</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E72" s="1"/>
     </row>

--- a/cam5_validation.xlsx
+++ b/cam5_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBC4D4E-327C-44B4-B1FE-6FB43D51D331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1E6F27-2FBB-4E3E-A23E-8F895F0ED76B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12694" yWindow="2683" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16423" yWindow="3994" windowWidth="9266" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -350,20 +350,20 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D72"/>
+      <selection sqref="A1:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>907.12300000000005</v>
+        <v>868.41099999999994</v>
       </c>
       <c r="B1" s="1">
-        <v>1023.784</v>
+        <v>1023.727</v>
       </c>
       <c r="C1" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,268 +372,268 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>924.67899999999997</v>
+        <v>888.529</v>
       </c>
       <c r="B2" s="1">
-        <v>1780.1130000000001</v>
+        <v>1833.9269999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>920.17200000000003</v>
+        <v>883.97699999999998</v>
       </c>
       <c r="B3" s="1">
-        <v>1675.692</v>
+        <v>1738.1659999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D3" s="1">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>916.51199999999994</v>
+        <v>879.8</v>
       </c>
       <c r="B4" s="1">
-        <v>1577.635</v>
+        <v>1632.423</v>
       </c>
       <c r="C4" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.93</v>
+        <v>-12.03</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>913.50199999999995</v>
+        <v>876.08100000000002</v>
       </c>
       <c r="B5" s="1">
-        <v>1484.15</v>
+        <v>1531.8150000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-10.07</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>911.20399999999995</v>
+        <v>873.38400000000001</v>
       </c>
       <c r="B6" s="1">
-        <v>1389.0219999999999</v>
+        <v>1430.6859999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.93</v>
+        <v>-8.07</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>909.37099999999998</v>
+        <v>871.05100000000004</v>
       </c>
       <c r="B7" s="1">
-        <v>1296.7</v>
+        <v>1329.8530000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.93</v>
+        <v>-6.1</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>907.95</v>
+        <v>869.49400000000003</v>
       </c>
       <c r="B8" s="1">
-        <v>1204.241</v>
+        <v>1229.239</v>
       </c>
       <c r="C8" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.93</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>907.39599999999996</v>
+        <v>868.52700000000004</v>
       </c>
       <c r="B9" s="1">
-        <v>1112.2529999999999</v>
+        <v>1128.01</v>
       </c>
       <c r="C9" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.93</v>
+        <v>-2.08</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>907.28700000000003</v>
+        <v>868.41099999999994</v>
       </c>
       <c r="B10" s="1">
-        <v>1021</v>
+        <v>1028.586</v>
       </c>
       <c r="C10" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>907.91600000000005</v>
+        <v>868.82799999999997</v>
       </c>
       <c r="B11" s="1">
-        <v>927.76300000000003</v>
+        <v>927.45899999999995</v>
       </c>
       <c r="C11" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0699999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>908.88900000000001</v>
+        <v>870.00599999999997</v>
       </c>
       <c r="B12" s="1">
-        <v>836.91800000000001</v>
+        <v>826.91600000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D12" s="1">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>910.54899999999998</v>
+        <v>871.846</v>
       </c>
       <c r="B13" s="1">
-        <v>744.35699999999997</v>
+        <v>726.83600000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D13" s="1">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>913.02200000000005</v>
+        <v>874.40099999999995</v>
       </c>
       <c r="B14" s="1">
-        <v>651.70000000000005</v>
+        <v>625.05600000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.93</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>916.05200000000002</v>
+        <v>877.58399999999995</v>
       </c>
       <c r="B15" s="1">
-        <v>556.99400000000003</v>
+        <v>523.56200000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D15" s="1">
-        <v>10.07</v>
+        <v>9.93</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>919.68100000000004</v>
+        <v>881.529</v>
       </c>
       <c r="B16" s="1">
-        <v>462.517</v>
+        <v>420.87700000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D16" s="1">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>923.74800000000005</v>
+        <v>885.94899999999996</v>
       </c>
       <c r="B17" s="1">
-        <v>368.96499999999997</v>
+        <v>318.38</v>
       </c>
       <c r="C17" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D17" s="1">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>928.56399999999996</v>
+        <v>891.02099999999996</v>
       </c>
       <c r="B18" s="1">
-        <v>272.959</v>
+        <v>213.31</v>
       </c>
       <c r="C18" s="1">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D18" s="1">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>889.02499999999998</v>
+        <v>850.13300000000004</v>
       </c>
       <c r="B19" s="1">
-        <v>1023.694</v>
+        <v>1023.418</v>
       </c>
       <c r="C19" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,268 +642,268 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>906.1</v>
+        <v>869.50099999999998</v>
       </c>
       <c r="B20" s="1">
-        <v>1781.357</v>
+        <v>1832.37</v>
       </c>
       <c r="C20" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.100000000000001</v>
+        <v>-15.9</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>901.56200000000001</v>
+        <v>865.22400000000005</v>
       </c>
       <c r="B21" s="1">
-        <v>1675.71</v>
+        <v>1737.0070000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D21" s="1">
-        <v>-13.97</v>
+        <v>-14.07</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>898.03099999999995</v>
+        <v>861.01599999999996</v>
       </c>
       <c r="B22" s="1">
-        <v>1578.0540000000001</v>
+        <v>1632.4639999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.92</v>
+        <v>-12.05</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>895.16</v>
+        <v>857.56500000000005</v>
       </c>
       <c r="B23" s="1">
-        <v>1484.037</v>
+        <v>1531.191</v>
       </c>
       <c r="C23" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-10.07</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>892.59100000000001</v>
+        <v>854.73099999999999</v>
       </c>
       <c r="B24" s="1">
-        <v>1389.979</v>
+        <v>1430.43</v>
       </c>
       <c r="C24" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.92</v>
+        <v>-8.07</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>891.01400000000001</v>
+        <v>852.59500000000003</v>
       </c>
       <c r="B25" s="1">
-        <v>1297.8989999999999</v>
+        <v>1329.59</v>
       </c>
       <c r="C25" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.92</v>
+        <v>-6.1</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>889.98</v>
+        <v>851.41700000000003</v>
       </c>
       <c r="B26" s="1">
-        <v>1205.665</v>
+        <v>1229.0550000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.95</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>889.04499999999996</v>
+        <v>850.40599999999995</v>
       </c>
       <c r="B27" s="1">
-        <v>1112.7249999999999</v>
+        <v>1128.2349999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.92</v>
+        <v>-2.08</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>889.02300000000002</v>
+        <v>850.28499999999997</v>
       </c>
       <c r="B28" s="1">
-        <v>1021.514</v>
+        <v>1028.5730000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>889.76099999999997</v>
+        <v>850.73500000000001</v>
       </c>
       <c r="B29" s="1">
-        <v>928.64200000000005</v>
+        <v>927.67700000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D29" s="1">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>890.69600000000003</v>
+        <v>851.75400000000002</v>
       </c>
       <c r="B30" s="1">
-        <v>837.55700000000002</v>
+        <v>827.14</v>
       </c>
       <c r="C30" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D30" s="1">
-        <v>4.08</v>
+        <v>3.93</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>892.5</v>
+        <v>853.52</v>
       </c>
       <c r="B31" s="1">
-        <v>745.96600000000001</v>
+        <v>727.42100000000005</v>
       </c>
       <c r="C31" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D31" s="1">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>894.63499999999999</v>
+        <v>855.99300000000005</v>
       </c>
       <c r="B32" s="1">
-        <v>653.99199999999996</v>
+        <v>625.84199999999998</v>
       </c>
       <c r="C32" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.93</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>897.54100000000005</v>
+        <v>859.00699999999995</v>
       </c>
       <c r="B33" s="1">
-        <v>558.68399999999997</v>
+        <v>523.97400000000005</v>
       </c>
       <c r="C33" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D33" s="1">
-        <v>10.08</v>
+        <v>9.93</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>901.11699999999996</v>
+        <v>862.95299999999997</v>
       </c>
       <c r="B34" s="1">
-        <v>464.471</v>
+        <v>421.69499999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D34" s="1">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>905.26800000000003</v>
+        <v>867.26199999999994</v>
       </c>
       <c r="B35" s="1">
-        <v>370.28800000000001</v>
+        <v>318.32600000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D35" s="1">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>909.577</v>
+        <v>871.92899999999997</v>
       </c>
       <c r="B36" s="1">
-        <v>274.20600000000002</v>
+        <v>214.256</v>
       </c>
       <c r="C36" s="1">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D36" s="1">
-        <v>16.079999999999998</v>
+        <v>15.97</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>872.13699999999994</v>
+        <v>833.40200000000004</v>
       </c>
       <c r="B37" s="1">
-        <v>1023.794</v>
+        <v>1023.812</v>
       </c>
       <c r="C37" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,268 +912,268 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>888.52800000000002</v>
+        <v>852.06299999999999</v>
       </c>
       <c r="B38" s="1">
-        <v>1780.6610000000001</v>
+        <v>1832.27</v>
       </c>
       <c r="C38" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.100000000000001</v>
+        <v>-15.9</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>884.25400000000002</v>
+        <v>847.72400000000005</v>
       </c>
       <c r="B39" s="1">
-        <v>1674.6610000000001</v>
+        <v>1735.9929999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D39" s="1">
-        <v>-13.97</v>
+        <v>-14.1</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>880.923</v>
+        <v>843.91200000000003</v>
       </c>
       <c r="B40" s="1">
-        <v>1577.67</v>
+        <v>1629.9159999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.92</v>
+        <v>-12.05</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>878.23400000000004</v>
+        <v>840.50699999999995</v>
       </c>
       <c r="B41" s="1">
-        <v>1484.1849999999999</v>
+        <v>1529.8309999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>875.61199999999997</v>
+        <v>837.88199999999995</v>
       </c>
       <c r="B42" s="1">
-        <v>1389.0409999999999</v>
+        <v>1429.56</v>
       </c>
       <c r="C42" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.92</v>
+        <v>-8.07</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>874.18200000000002</v>
+        <v>835.79499999999996</v>
       </c>
       <c r="B43" s="1">
-        <v>1297.32</v>
+        <v>1329.8489999999999</v>
       </c>
       <c r="C43" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.95</v>
+        <v>-6.1</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>873</v>
+        <v>834.43</v>
       </c>
       <c r="B44" s="1">
-        <v>1204.0119999999999</v>
+        <v>1228.8330000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.92</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>872.303</v>
+        <v>833.51599999999996</v>
       </c>
       <c r="B45" s="1">
-        <v>1113.1949999999999</v>
+        <v>1127.9770000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.92</v>
+        <v>-2.08</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>872.09100000000001</v>
+        <v>833.38</v>
       </c>
       <c r="B46" s="1">
-        <v>1021.6950000000001</v>
+        <v>1028.1969999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D46" s="1">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>872.89599999999996</v>
+        <v>833.97699999999998</v>
       </c>
       <c r="B47" s="1">
-        <v>929.18200000000002</v>
+        <v>927.74199999999996</v>
       </c>
       <c r="C47" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D47" s="1">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>873.96</v>
+        <v>835</v>
       </c>
       <c r="B48" s="1">
-        <v>838.07799999999997</v>
+        <v>827.38699999999994</v>
       </c>
       <c r="C48" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D48" s="1">
-        <v>4.08</v>
+        <v>3.93</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>875.505</v>
+        <v>836.65599999999995</v>
       </c>
       <c r="B49" s="1">
-        <v>746.15899999999999</v>
+        <v>727.88400000000001</v>
       </c>
       <c r="C49" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D49" s="1">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>877.58799999999997</v>
+        <v>838.99199999999996</v>
       </c>
       <c r="B50" s="1">
-        <v>654.59400000000005</v>
+        <v>626.23800000000006</v>
       </c>
       <c r="C50" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.93</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>880.43200000000002</v>
+        <v>842</v>
       </c>
       <c r="B51" s="1">
-        <v>559.21699999999998</v>
+        <v>524.08199999999999</v>
       </c>
       <c r="C51" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D51" s="1">
-        <v>10.08</v>
+        <v>9.93</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>883.88900000000001</v>
+        <v>845.57399999999996</v>
       </c>
       <c r="B52" s="1">
-        <v>466.14600000000002</v>
+        <v>422.47399999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D52" s="1">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>887.745</v>
+        <v>849.68100000000004</v>
       </c>
       <c r="B53" s="1">
-        <v>371.27300000000002</v>
+        <v>319.61399999999998</v>
       </c>
       <c r="C53" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D53" s="1">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>892.25199999999995</v>
+        <v>854.45699999999999</v>
       </c>
       <c r="B54" s="1">
-        <v>275.89299999999997</v>
+        <v>215.185</v>
       </c>
       <c r="C54" s="1">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D54" s="1">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>856.93799999999999</v>
+        <v>817.928</v>
       </c>
       <c r="B55" s="1">
-        <v>1023.539</v>
+        <v>1023.619</v>
       </c>
       <c r="C55" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,383 +1182,527 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>872.495</v>
+        <v>835.62099999999998</v>
       </c>
       <c r="B56" s="1">
-        <v>1780.2919999999999</v>
+        <v>1830.951</v>
       </c>
       <c r="C56" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.100000000000001</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>868.31700000000001</v>
+        <v>831.69100000000003</v>
       </c>
       <c r="B57" s="1">
-        <v>1674.325</v>
+        <v>1735.615</v>
       </c>
       <c r="C57" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D57" s="1">
-        <v>-13.97</v>
+        <v>-14.1</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>864.97900000000004</v>
+        <v>827.90700000000004</v>
       </c>
       <c r="B58" s="1">
-        <v>1577.489</v>
+        <v>1629.8989999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.92</v>
+        <v>-12.05</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>862.48199999999997</v>
+        <v>824.53700000000003</v>
       </c>
       <c r="B59" s="1">
-        <v>1483.366</v>
+        <v>1529.722</v>
       </c>
       <c r="C59" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D59" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>860.13599999999997</v>
+        <v>822.23400000000004</v>
       </c>
       <c r="B60" s="1">
-        <v>1389.413</v>
+        <v>1429.1179999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.92</v>
+        <v>-8.07</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>858.49699999999996</v>
+        <v>820.20100000000002</v>
       </c>
       <c r="B61" s="1">
-        <v>1296.6969999999999</v>
+        <v>1329.2349999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.92</v>
+        <v>-6.1</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>857.37400000000002</v>
+        <v>818.84699999999998</v>
       </c>
       <c r="B62" s="1">
-        <v>1205.6310000000001</v>
+        <v>1228.6780000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.95</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>856.96799999999996</v>
+        <v>817.99199999999996</v>
       </c>
       <c r="B63" s="1">
-        <v>1112.9000000000001</v>
+        <v>1128.165</v>
       </c>
       <c r="C63" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.92</v>
+        <v>-2.08</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>856.93799999999999</v>
+        <v>817.84900000000005</v>
       </c>
       <c r="B64" s="1">
-        <v>1021.542</v>
+        <v>1029.115</v>
       </c>
       <c r="C64" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>857.28099999999995</v>
+        <v>818.08100000000002</v>
       </c>
       <c r="B65" s="1">
-        <v>930.06</v>
+        <v>928.42899999999997</v>
       </c>
       <c r="C65" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D65" s="1">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>858.38800000000003</v>
+        <v>819.10900000000004</v>
       </c>
       <c r="B66" s="1">
-        <v>838.57</v>
+        <v>827.91399999999999</v>
       </c>
       <c r="C66" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D66" s="1">
-        <v>4.08</v>
+        <v>3.93</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>859.62900000000002</v>
+        <v>820.96600000000001</v>
       </c>
       <c r="B67" s="1">
-        <v>747.125</v>
+        <v>727.98299999999995</v>
       </c>
       <c r="C67" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D67" s="1">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>861.93100000000004</v>
+        <v>823.04899999999998</v>
       </c>
       <c r="B68" s="1">
-        <v>655.15099999999995</v>
+        <v>626.97500000000002</v>
       </c>
       <c r="C68" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.93</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>864.87300000000005</v>
+        <v>825.99400000000003</v>
       </c>
       <c r="B69" s="1">
-        <v>560.27300000000002</v>
+        <v>526.07000000000005</v>
       </c>
       <c r="C69" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D69" s="1">
-        <v>10.08</v>
+        <v>9.93</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>867.93399999999997</v>
+        <v>829.68</v>
       </c>
       <c r="B70" s="1">
-        <v>466.64600000000002</v>
+        <v>423.06299999999999</v>
       </c>
       <c r="C70" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D70" s="1">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>871.779</v>
+        <v>833.53300000000002</v>
       </c>
       <c r="B71" s="1">
-        <v>372.08800000000002</v>
+        <v>320.524</v>
       </c>
       <c r="C71" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D71" s="1">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>876.19799999999998</v>
+        <v>838.13800000000003</v>
       </c>
       <c r="B72" s="1">
-        <v>276.90100000000001</v>
+        <v>215.90899999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="D72" s="1">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="A73" s="1">
+        <v>803.03800000000001</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1023.737</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="A74" s="1">
+        <v>820.529</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1830.306</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-15.9</v>
+      </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="A75" s="1">
+        <v>816.56399999999996</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1734.7670000000001</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-14.1</v>
+      </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A76" s="1">
+        <v>813.03099999999995</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1629.193</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-12.05</v>
+      </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="A77" s="1">
+        <v>809.74400000000003</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1528.704</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-10.050000000000001</v>
+      </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="A78" s="1">
+        <v>807.46</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1429.175</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-8.07</v>
+      </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="A79" s="1">
+        <v>805.505</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1329.154</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-6.1</v>
+      </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="A80" s="1">
+        <v>804.28399999999999</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1228.3689999999999</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-4.0999999999999996</v>
+      </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="A81" s="1">
+        <v>803.18200000000002</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1128.425</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-2.08</v>
+      </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="A82" s="1">
+        <v>803.05399999999997</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1028.432</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-0.08</v>
+      </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="A83" s="1">
+        <v>803.678</v>
+      </c>
+      <c r="B83" s="1">
+        <v>928.73</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.92</v>
+      </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="A84" s="1">
+        <v>804.75599999999997</v>
+      </c>
+      <c r="B84" s="1">
+        <v>827.85599999999999</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3.93</v>
+      </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="A85" s="1">
+        <v>806.22199999999998</v>
+      </c>
+      <c r="B85" s="1">
+        <v>728.49099999999999</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>5.9</v>
+      </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="A86" s="1">
+        <v>808.53099999999995</v>
+      </c>
+      <c r="B86" s="1">
+        <v>627.34400000000005</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>7.93</v>
+      </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="A87" s="1">
+        <v>811.08</v>
+      </c>
+      <c r="B87" s="1">
+        <v>526.86400000000003</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>9.93</v>
+      </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="A88" s="1">
+        <v>814.60900000000004</v>
+      </c>
+      <c r="B88" s="1">
+        <v>423.72399999999999</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>11.95</v>
+      </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="A89" s="1">
+        <v>818.56299999999999</v>
+      </c>
+      <c r="B89" s="1">
+        <v>321.46800000000002</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>13.95</v>
+      </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="A90" s="1">
+        <v>822.90099999999995</v>
+      </c>
+      <c r="B90" s="1">
+        <v>216.571</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2949.2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>15.97</v>
+      </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
